--- a/Sales Dashboard.xlsx
+++ b/Sales Dashboard.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Portfolio\Excel\Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D68AC1B-40DA-4F7D-A623-5A81389506B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE1BCC8-FBE5-4288-9E7F-32D0E4EA8FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="7" xr2:uid="{ABA8625F-80F9-4A28-B245-4C402588C942}"/>
   </bookViews>
@@ -31,7 +31,6 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="329">
   <si>
     <t>Date</t>
   </si>
@@ -1034,9 +1033,6 @@
     <t>Nov</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>Profit By Region</t>
   </si>
   <si>
@@ -1085,7 +1081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1097,11 +1093,33 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
@@ -1110,6 +1128,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -2036,9 +2060,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Sales By Month and Year'!$A$4:$A$28</c:f>
+              <c:f>'Sales By Month and Year'!$A$4:$A$16</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="11"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Jan</c:v>
@@ -2073,46 +2097,10 @@
                   <c:pt idx="10">
                     <c:v>Nov</c:v>
                   </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Jan</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Feb</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Mar</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Apr</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>May</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Jun</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Jul</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>Sep</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>Oct</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>Nov</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>2021</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>2022</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2120,10 +2108,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sales By Month and Year'!$B$4:$B$28</c:f>
+              <c:f>'Sales By Month and Year'!$B$4:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>14051.174605714907</c:v>
                 </c:pt>
@@ -2146,49 +2134,16 @@
                   <c:v>11561.072115895257</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14725.01477940141</c:v>
+                  <c:v>14725.014779401412</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>13886.82590232461</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13432.629472215185</c:v>
+                  <c:v>13432.629472215183</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9886.2649957463436</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12518.044277734985</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4532.8203678122509</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5216.4317727902326</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5626.0535620646397</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11221.007219352505</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5352.4748386107422</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5350.1916156770776</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9139.5978700406595</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6007.2153634982606</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4479.671303857097</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7264.7309462738394</c:v>
+                  <c:v>9886.2649957463418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3376,28 +3331,28 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6005.0619680923537</c:v>
+                  <c:v>5271.0980394748603</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5102.440218496632</c:v>
+                  <c:v>2239.0522151611367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12692.555036060814</c:v>
+                  <c:v>7836.6837321890762</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2855.4162495977616</c:v>
+                  <c:v>1334.0406544367825</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3414.9943256825113</c:v>
+                  <c:v>2989.6805269485126</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1246.1265928944817</c:v>
+                  <c:v>1138.2793698420464</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7169.3464114312374</c:v>
+                  <c:v>6120.3742788219397</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3333.2510693704598</c:v>
+                  <c:v>2889.7691482183927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3471,28 +3426,28 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4183.5212882026717</c:v>
+                  <c:v>3390.4615055102254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5101.8636069315999</c:v>
+                  <c:v>3334.3343883124003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3679.5931639830405</c:v>
+                  <c:v>2815.0192506770582</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2507.8285645083488</c:v>
+                  <c:v>1342.8488688899401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10530.539492151933</c:v>
+                  <c:v>5642.9463277852292</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2321.0415568469457</c:v>
+                  <c:v>1774.9676213350449</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7120.3125398450502</c:v>
+                  <c:v>2183.8040670624196</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5640.2627897744569</c:v>
+                  <c:v>3333.3653015853442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3566,28 +3521,28 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4364.0473314983938</c:v>
+                  <c:v>1999.3381820327186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8072.9977175660779</c:v>
+                  <c:v>5544.3198843580585</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5070.8242933278989</c:v>
+                  <c:v>4474.9044115418947</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7171.2884628247921</c:v>
+                  <c:v>5976.3399830417929</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7380.4267733467168</c:v>
+                  <c:v>4398.9234962584487</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6122.1026213016585</c:v>
+                  <c:v>3241.7226546326301</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7136.3146901100909</c:v>
+                  <c:v>4732.3047210090126</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4405.2359355133603</c:v>
+                  <c:v>2992.3279608377147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3661,28 +3616,28 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3963.1044498575466</c:v>
+                  <c:v>1921.8320733986325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4701.1476562361704</c:v>
+                  <c:v>3101.3551544229126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6465.7770279494362</c:v>
+                  <c:v>3544.418494469599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3832.9152880978045</c:v>
+                  <c:v>2224.4362672795692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5581.481581992246</c:v>
+                  <c:v>4622.6108159130536</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4353.4023677245659</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5415.8958485100002</c:v>
+                  <c:v>3417.2173583689828</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4746.1306397976659</c:v>
+                  <c:v>3080.5442572597826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3756,28 +3711,28 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6827.9386810806545</c:v>
+                  <c:v>3052.9168401627917</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10533.098761655596</c:v>
+                  <c:v>4844.4686937306305</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5327.9317733738517</c:v>
+                  <c:v>3850.6404241892619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6354.998917860351</c:v>
+                  <c:v>4043.4737342061781</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4602.0672839158096</c:v>
+                  <c:v>3499.1248419338663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2535.6862114567225</c:v>
+                  <c:v>1202.1632218470429</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1114.1339041120552</c:v>
+                  <c:v>832.14588187321897</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4522.3916741297162</c:v>
+                  <c:v>2209.5986126544217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4644,19 +4599,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>41819.191871626259</c:v>
+                  <c:v>29818.977965092741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41084.963002244047</c:v>
+                  <c:v>23817.747331157661</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49723.237825488985</c:v>
+                  <c:v>33360.181293712267</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39059.85486016544</c:v>
+                  <c:v>26265.816788837103</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41818.247207584747</c:v>
+                  <c:v>23534.532250597411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4721,19 +4676,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>32437.82369989208</c:v>
+                  <c:v>23636.166235483375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32250.166876516734</c:v>
+                  <c:v>18492.247879651281</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41143.7775912293</c:v>
+                  <c:v>27801.968892102115</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30565.641934586791</c:v>
+                  <c:v>20700.394573680638</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31571.346796805617</c:v>
+                  <c:v>17619.124755451616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4798,19 +4753,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9381.3681717341788</c:v>
+                  <c:v>6182.811729609366</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8834.7961257273128</c:v>
+                  <c:v>5325.4994515063809</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8579.4602342596845</c:v>
+                  <c:v>5558.2124016101516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8494.2129255786494</c:v>
+                  <c:v>5565.4222151564645</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10246.90041077913</c:v>
+                  <c:v>5915.4074951457951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5284,19 +5239,19 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>41819.191871626259</c:v>
+                  <c:v>29818.977965092741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41084.963002244047</c:v>
+                  <c:v>23817.747331157661</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49723.237825488985</c:v>
+                  <c:v>33360.181293712267</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39059.85486016544</c:v>
+                  <c:v>26265.816788837103</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41818.247207584747</c:v>
+                  <c:v>23534.532250597411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5776,34 +5731,34 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16267.7226334019</c:v>
+                  <c:v>11559.908073430883</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17533.892707371957</c:v>
+                  <c:v>10538.337370619256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25307.021014131649</c:v>
+                  <c:v>15919.626802912238</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18864.809142429727</c:v>
+                  <c:v>12209.314225336253</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24153.062229507228</c:v>
+                  <c:v>16437.098443000014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16503.111404541323</c:v>
+                  <c:v>10562.269339040051</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9595.2865157457709</c:v>
+                  <c:v>7451.0535010011099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11981.238963616514</c:v>
+                  <c:v>8680.9644282649351</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10367.914338347346</c:v>
+                  <c:v>6048.3037700522946</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9750.0679825956777</c:v>
+                  <c:v>6366.7591171797221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6254,9 +6209,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Sales By Month and Year'!$A$4:$A$28</c:f>
+              <c:f>'Sales By Month and Year'!$A$4:$A$16</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="11"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Jan</c:v>
@@ -6291,46 +6246,10 @@
                   <c:pt idx="10">
                     <c:v>Nov</c:v>
                   </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Jan</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Feb</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Mar</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Apr</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>May</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Jun</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Jul</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Aug</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>Sep</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>Oct</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>Nov</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>2021</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>2022</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -6338,10 +6257,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sales By Month and Year'!$B$4:$B$28</c:f>
+              <c:f>'Sales By Month and Year'!$B$4:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>14051.174605714907</c:v>
                 </c:pt>
@@ -6364,49 +6283,16 @@
                   <c:v>11561.072115895257</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14725.01477940141</c:v>
+                  <c:v>14725.014779401412</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>13886.82590232461</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13432.629472215185</c:v>
+                  <c:v>13432.629472215183</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9886.2649957463436</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12518.044277734985</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4532.8203678122509</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5216.4317727902326</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5626.0535620646397</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11221.007219352505</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5352.4748386107422</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5350.1916156770776</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9139.5978700406595</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6007.2153634982606</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4479.671303857097</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7264.7309462738394</c:v>
+                  <c:v>9886.2649957463418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7034,28 +6920,28 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6005.0619680923537</c:v>
+                  <c:v>5271.0980394748603</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5102.440218496632</c:v>
+                  <c:v>2239.0522151611367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12692.555036060814</c:v>
+                  <c:v>7836.6837321890762</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2855.4162495977616</c:v>
+                  <c:v>1334.0406544367825</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3414.9943256825113</c:v>
+                  <c:v>2989.6805269485126</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1246.1265928944817</c:v>
+                  <c:v>1138.2793698420464</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7169.3464114312374</c:v>
+                  <c:v>6120.3742788219397</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3333.2510693704598</c:v>
+                  <c:v>2889.7691482183927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7129,28 +7015,28 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4183.5212882026717</c:v>
+                  <c:v>3390.4615055102254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5101.8636069315999</c:v>
+                  <c:v>3334.3343883124003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3679.5931639830405</c:v>
+                  <c:v>2815.0192506770582</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2507.8285645083488</c:v>
+                  <c:v>1342.8488688899401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10530.539492151933</c:v>
+                  <c:v>5642.9463277852292</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2321.0415568469457</c:v>
+                  <c:v>1774.9676213350449</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7120.3125398450502</c:v>
+                  <c:v>2183.8040670624196</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5640.2627897744569</c:v>
+                  <c:v>3333.3653015853442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7224,28 +7110,28 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4364.0473314983938</c:v>
+                  <c:v>1999.3381820327186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8072.9977175660779</c:v>
+                  <c:v>5544.3198843580585</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5070.8242933278989</c:v>
+                  <c:v>4474.9044115418947</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7171.2884628247921</c:v>
+                  <c:v>5976.3399830417929</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7380.4267733467168</c:v>
+                  <c:v>4398.9234962584487</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6122.1026213016585</c:v>
+                  <c:v>3241.7226546326301</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7136.3146901100909</c:v>
+                  <c:v>4732.3047210090126</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4405.2359355133603</c:v>
+                  <c:v>2992.3279608377147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7319,28 +7205,28 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3963.1044498575466</c:v>
+                  <c:v>1921.8320733986325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4701.1476562361704</c:v>
+                  <c:v>3101.3551544229126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6465.7770279494362</c:v>
+                  <c:v>3544.418494469599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3832.9152880978045</c:v>
+                  <c:v>2224.4362672795692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5581.481581992246</c:v>
+                  <c:v>4622.6108159130536</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4353.4023677245659</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5415.8958485100002</c:v>
+                  <c:v>3417.2173583689828</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4746.1306397976659</c:v>
+                  <c:v>3080.5442572597826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7414,28 +7300,28 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6827.9386810806545</c:v>
+                  <c:v>3052.9168401627917</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10533.098761655596</c:v>
+                  <c:v>4844.4686937306305</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5327.9317733738517</c:v>
+                  <c:v>3850.6404241892619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6354.998917860351</c:v>
+                  <c:v>4043.4737342061781</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4602.0672839158096</c:v>
+                  <c:v>3499.1248419338663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2535.6862114567225</c:v>
+                  <c:v>1202.1632218470429</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1114.1339041120552</c:v>
+                  <c:v>832.14588187321897</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4522.3916741297162</c:v>
+                  <c:v>2209.5986126544217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7980,19 +7866,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>41819.191871626259</c:v>
+                  <c:v>29818.977965092741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41084.963002244047</c:v>
+                  <c:v>23817.747331157661</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49723.237825488985</c:v>
+                  <c:v>33360.181293712267</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39059.85486016544</c:v>
+                  <c:v>26265.816788837103</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41818.247207584747</c:v>
+                  <c:v>23534.532250597411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8057,19 +7943,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>32437.82369989208</c:v>
+                  <c:v>23636.166235483375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32250.166876516734</c:v>
+                  <c:v>18492.247879651281</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41143.7775912293</c:v>
+                  <c:v>27801.968892102115</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30565.641934586791</c:v>
+                  <c:v>20700.394573680638</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31571.346796805617</c:v>
+                  <c:v>17619.124755451616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8134,19 +8020,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9381.3681717341788</c:v>
+                  <c:v>6182.811729609366</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8834.7961257273128</c:v>
+                  <c:v>5325.4994515063809</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8579.4602342596845</c:v>
+                  <c:v>5558.2124016101516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8494.2129255786494</c:v>
+                  <c:v>5565.4222151564645</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10246.90041077913</c:v>
+                  <c:v>5915.4074951457951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8812,19 +8698,19 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>41819.191871626259</c:v>
+                  <c:v>29818.977965092741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41084.963002244047</c:v>
+                  <c:v>23817.747331157661</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49723.237825488985</c:v>
+                  <c:v>33360.181293712267</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39059.85486016544</c:v>
+                  <c:v>26265.816788837103</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41818.247207584747</c:v>
+                  <c:v>23534.532250597411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10254,34 +10140,34 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16267.7226334019</c:v>
+                  <c:v>11559.908073430883</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17533.892707371957</c:v>
+                  <c:v>10538.337370619256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25307.021014131649</c:v>
+                  <c:v>15919.626802912238</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18864.809142429727</c:v>
+                  <c:v>12209.314225336253</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24153.062229507228</c:v>
+                  <c:v>16437.098443000014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16503.111404541323</c:v>
+                  <c:v>10562.269339040051</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9595.2865157457709</c:v>
+                  <c:v>7451.0535010011099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11981.238963616514</c:v>
+                  <c:v>8680.9644282649351</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10367.914338347346</c:v>
+                  <c:v>6048.3037700522946</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9750.0679825956777</c:v>
+                  <c:v>6366.7591171797221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17618,13 +17504,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>546804</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>88192</xdr:rowOff>
+      <xdr:rowOff>88191</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>200729</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>141111</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>110434</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17664,8 +17550,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>70556</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="11" name="Region">
@@ -17688,7 +17574,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -17742,8 +17628,8 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>123472</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="12" name="Delivery person">
@@ -17766,7 +17652,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -17820,8 +17706,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>176389</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="13" name="Years (Date)">
@@ -17844,7 +17730,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -18335,8 +18221,8 @@
         </groupItems>
       </fieldGroup>
     </cacheField>
-    <cacheField name="Profit" numFmtId="0" formula="'Selling Price' -' Cost Price'" databaseField="0"/>
-    <cacheField name="Field1" numFmtId="0" formula="'Selling Price' -' Cost Price'" databaseField="0"/>
+    <cacheField name="Profit" numFmtId="0" formula="'Selling Price'-' Cost Price'" databaseField="0"/>
+    <cacheField name="Field1" numFmtId="0" formula="'Selling Price'-' Cost Price'" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -22662,7 +22548,19 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -22688,10 +22586,10 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="5">
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -22728,7 +22626,7 @@
     <dataField name="Sum of Selling Price" fld="6" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -23121,8 +23019,29 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" showAll="0" measureFilter="1">
       <items count="23">
         <item x="21"/>
@@ -23174,10 +23093,10 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="5">
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -23229,7 +23148,7 @@
     <dataField name="Sum of Selling Price" fld="6" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -23276,7 +23195,7 @@
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67B96517-CB8F-47D0-A72F-919A93082D00}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="A3:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField numFmtId="14" showAll="0">
       <items count="349">
@@ -23631,8 +23550,29 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -23658,10 +23598,10 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -23672,45 +23612,9 @@
     <field x="8"/>
     <field x="7"/>
   </rowFields>
-  <rowItems count="25">
+  <rowItems count="13">
     <i>
       <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i r="1">
       <x v="1"/>
@@ -23755,7 +23659,7 @@
   <dataFields count="1">
     <dataField name="Sum of Selling Price" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="3">
+  <chartFormats count="2">
     <chartFormat chart="7" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -23770,21 +23674,6 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -24189,10 +24078,10 @@
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0">
       <items count="4">
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
       </items>
     </pivotField>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
@@ -24257,7 +24146,7 @@
     <dataField name="Sum of Selling Price" fld="6" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -24762,7 +24651,19 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -24770,10 +24671,10 @@
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0">
       <items count="4">
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
       </items>
     </pivotField>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
@@ -24893,6 +24794,11 @@
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Region" xr10:uid="{A004DF01-8648-46C6-8D2A-4B166846A5C7}" sourceName="Region">
   <pivotTables>
     <pivotTable tabId="16" name="PivotTable1"/>
+    <pivotTable tabId="19" name="PivotTable4"/>
+    <pivotTable tabId="22" name="PivotTable7"/>
+    <pivotTable tabId="17" name="PivotTable3"/>
+    <pivotTable tabId="14" name="PivotTable1"/>
+    <pivotTable tabId="15" name="PivotTable2"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="732870102">
@@ -24912,6 +24818,11 @@
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Delivery_person" xr10:uid="{5ADBEA9E-3612-4E22-89A2-B2F20B75B430}" sourceName="Delivery person">
   <pivotTables>
     <pivotTable tabId="16" name="PivotTable1"/>
+    <pivotTable tabId="19" name="PivotTable4"/>
+    <pivotTable tabId="22" name="PivotTable7"/>
+    <pivotTable tabId="17" name="PivotTable3"/>
+    <pivotTable tabId="14" name="PivotTable1"/>
+    <pivotTable tabId="15" name="PivotTable2"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="732870102">
@@ -24934,6 +24845,11 @@
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Years__Date" xr10:uid="{73AE4485-37A7-46ED-BA90-13F9B938C750}" sourceName="Years (Date)">
   <pivotTables>
     <pivotTable tabId="16" name="PivotTable1"/>
+    <pivotTable tabId="19" name="PivotTable4"/>
+    <pivotTable tabId="22" name="PivotTable7"/>
+    <pivotTable tabId="17" name="PivotTable3"/>
+    <pivotTable tabId="14" name="PivotTable1"/>
+    <pivotTable tabId="15" name="PivotTable2"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="732870102">
@@ -24959,7 +24875,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{01C052D7-6973-443C-BBE3-02788A0EA1D8}" name="Table1" displayName="Table1" ref="A1:G371" totalsRowShown="0">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7108B222-C801-4549-8F87-36251A204983}" name="Date" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{7108B222-C801-4549-8F87-36251A204983}" name="Date" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{E6023DE6-638D-4A3F-9DC3-C6F413560317}" name="Region"/>
     <tableColumn id="3" xr3:uid="{DE1A0DEF-EA15-4701-809A-5A6D9CC29926}" name="Delivery person"/>
     <tableColumn id="4" xr3:uid="{79E24552-44AF-4C3F-89DA-1687AE7F0B1F}" name="Customer ID"/>
@@ -25369,7 +25285,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="6">
-        <v>41819.191871626259</v>
+        <v>29818.977965092741</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -25377,7 +25293,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="6">
-        <v>41084.963002244047</v>
+        <v>23817.747331157661</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -25385,7 +25301,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="6">
-        <v>49723.237825488985</v>
+        <v>33360.181293712267</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -25393,7 +25309,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="6">
-        <v>39059.85486016544</v>
+        <v>26265.816788837103</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -25401,7 +25317,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="6">
-        <v>41818.247207584747</v>
+        <v>23534.532250597411</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -25409,7 +25325,7 @@
         <v>311</v>
       </c>
       <c r="B9" s="6">
-        <v>213505.49476710951</v>
+        <v>136797.25562939717</v>
       </c>
     </row>
   </sheetData>
@@ -25445,7 +25361,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="6">
-        <v>16267.7226334019</v>
+        <v>11559.908073430883</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -25453,7 +25369,7 @@
         <v>33</v>
       </c>
       <c r="B5" s="6">
-        <v>17533.892707371957</v>
+        <v>10538.337370619256</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -25461,7 +25377,7 @@
         <v>34</v>
       </c>
       <c r="B6" s="6">
-        <v>25307.021014131649</v>
+        <v>15919.626802912238</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -25469,7 +25385,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="6">
-        <v>18864.809142429727</v>
+        <v>12209.314225336253</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -25477,7 +25393,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="6">
-        <v>24153.062229507228</v>
+        <v>16437.098443000014</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -25485,7 +25401,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="6">
-        <v>16503.111404541323</v>
+        <v>10562.269339040051</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -25493,7 +25409,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="6">
-        <v>9595.2865157457709</v>
+        <v>7451.0535010011099</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -25501,7 +25417,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="6">
-        <v>11981.238963616514</v>
+        <v>8680.9644282649351</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -25509,7 +25425,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="6">
-        <v>10367.914338347346</v>
+        <v>6048.3037700522946</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -25517,7 +25433,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="6">
-        <v>9750.0679825956777</v>
+        <v>6366.7591171797221</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -25525,7 +25441,7 @@
         <v>311</v>
       </c>
       <c r="B14" s="6">
-        <v>160324.1269316891</v>
+        <v>105773.63507083677</v>
       </c>
     </row>
   </sheetData>
@@ -25536,7 +25452,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EE975B-7027-4316-9F41-32FB27C0A32B}">
-  <dimension ref="A3:B28"/>
+  <dimension ref="A3:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
@@ -25560,7 +25476,7 @@
       <c r="A4" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>136797.25562939717</v>
       </c>
     </row>
@@ -25568,7 +25484,7 @@
       <c r="A5" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>14051.174605714907</v>
       </c>
     </row>
@@ -25576,7 +25492,7 @@
       <c r="A6" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>11949.569209570702</v>
       </c>
     </row>
@@ -25584,7 +25500,7 @@
       <c r="A7" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>13202.405188994928</v>
       </c>
     </row>
@@ -25592,7 +25508,7 @@
       <c r="A8" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <v>11605.622087312508</v>
       </c>
     </row>
@@ -25600,7 +25516,7 @@
       <c r="A9" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
         <v>8722.8206764089191</v>
       </c>
     </row>
@@ -25608,7 +25524,7 @@
       <c r="A10" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>13773.856595812418</v>
       </c>
     </row>
@@ -25616,7 +25532,7 @@
       <c r="A11" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="7">
         <v>11561.072115895257</v>
       </c>
     </row>
@@ -25624,15 +25540,15 @@
       <c r="A12" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B12">
-        <v>14725.01477940141</v>
+      <c r="B12" s="7">
+        <v>14725.014779401412</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="7">
         <v>13886.82590232461</v>
       </c>
     </row>
@@ -25640,120 +25556,24 @@
       <c r="A14" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B14">
-        <v>13432.629472215185</v>
+      <c r="B14" s="7">
+        <v>13432.629472215183</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B15">
-        <v>9886.2649957463436</v>
+      <c r="B15" s="7">
+        <v>9886.2649957463418</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B16">
-        <v>76708.239137712284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B17">
-        <v>12518.044277734985</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B18">
-        <v>4532.8203678122509</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B19">
-        <v>5216.4317727902326</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B20">
-        <v>5626.0535620646397</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B21">
-        <v>11221.007219352505</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B22">
-        <v>5352.4748386107422</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B23">
-        <v>5350.1916156770776</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B24">
-        <v>9139.5978700406595</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B25">
-        <v>6007.2153634982606</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B26">
-        <v>4479.671303857097</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B27">
-        <v>7264.7309462738394</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B28">
-        <v>213505.49476710943</v>
+      <c r="B16" s="7">
+        <v>136797.25562939717</v>
       </c>
     </row>
   </sheetData>
@@ -25816,22 +25636,22 @@
         <v>21</v>
       </c>
       <c r="B5" s="6">
-        <v>6005.0619680923537</v>
+        <v>5271.0980394748603</v>
       </c>
       <c r="C5" s="6">
-        <v>4183.5212882026717</v>
+        <v>3390.4615055102254</v>
       </c>
       <c r="D5" s="6">
-        <v>4364.0473314983938</v>
+        <v>1999.3381820327186</v>
       </c>
       <c r="E5" s="6">
-        <v>3963.1044498575466</v>
+        <v>1921.8320733986325</v>
       </c>
       <c r="F5" s="6">
-        <v>6827.9386810806545</v>
+        <v>3052.9168401627917</v>
       </c>
       <c r="G5" s="6">
-        <v>25343.673718731618</v>
+        <v>15635.646640579229</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -25839,22 +25659,22 @@
         <v>15</v>
       </c>
       <c r="B6" s="6">
-        <v>5102.440218496632</v>
+        <v>2239.0522151611367</v>
       </c>
       <c r="C6" s="6">
-        <v>5101.8636069315999</v>
+        <v>3334.3343883124003</v>
       </c>
       <c r="D6" s="6">
-        <v>8072.9977175660779</v>
+        <v>5544.3198843580585</v>
       </c>
       <c r="E6" s="6">
-        <v>4701.1476562361704</v>
+        <v>3101.3551544229126</v>
       </c>
       <c r="F6" s="6">
-        <v>10533.098761655596</v>
+        <v>4844.4686937306305</v>
       </c>
       <c r="G6" s="6">
-        <v>33511.547960886077</v>
+        <v>19063.530335985139</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -25862,22 +25682,22 @@
         <v>18</v>
       </c>
       <c r="B7" s="6">
-        <v>12692.555036060814</v>
+        <v>7836.6837321890762</v>
       </c>
       <c r="C7" s="6">
-        <v>3679.5931639830405</v>
+        <v>2815.0192506770582</v>
       </c>
       <c r="D7" s="6">
-        <v>5070.8242933278989</v>
+        <v>4474.9044115418947</v>
       </c>
       <c r="E7" s="6">
-        <v>6465.7770279494362</v>
+        <v>3544.418494469599</v>
       </c>
       <c r="F7" s="6">
-        <v>5327.9317733738517</v>
+        <v>3850.6404241892619</v>
       </c>
       <c r="G7" s="6">
-        <v>33236.681294695045</v>
+        <v>22521.666313066893</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -25885,22 +25705,22 @@
         <v>16</v>
       </c>
       <c r="B8" s="6">
-        <v>2855.4162495977616</v>
+        <v>1334.0406544367825</v>
       </c>
       <c r="C8" s="6">
-        <v>2507.8285645083488</v>
+        <v>1342.8488688899401</v>
       </c>
       <c r="D8" s="6">
-        <v>7171.2884628247921</v>
+        <v>5976.3399830417929</v>
       </c>
       <c r="E8" s="6">
-        <v>3832.9152880978045</v>
+        <v>2224.4362672795692</v>
       </c>
       <c r="F8" s="6">
-        <v>6354.998917860351</v>
+        <v>4043.4737342061781</v>
       </c>
       <c r="G8" s="6">
-        <v>22722.447482889056</v>
+        <v>14921.139507854263</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -25908,22 +25728,22 @@
         <v>17</v>
       </c>
       <c r="B9" s="6">
-        <v>3414.9943256825113</v>
+        <v>2989.6805269485126</v>
       </c>
       <c r="C9" s="6">
-        <v>10530.539492151933</v>
+        <v>5642.9463277852292</v>
       </c>
       <c r="D9" s="6">
-        <v>7380.4267733467168</v>
+        <v>4398.9234962584487</v>
       </c>
       <c r="E9" s="6">
-        <v>5581.481581992246</v>
+        <v>4622.6108159130536</v>
       </c>
       <c r="F9" s="6">
-        <v>4602.0672839158096</v>
+        <v>3499.1248419338663</v>
       </c>
       <c r="G9" s="6">
-        <v>31509.509457089214</v>
+        <v>21153.28600883911</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -25931,22 +25751,22 @@
         <v>20</v>
       </c>
       <c r="B10" s="6">
-        <v>1246.1265928944817</v>
+        <v>1138.2793698420464</v>
       </c>
       <c r="C10" s="6">
-        <v>2321.0415568469457</v>
+        <v>1774.9676213350449</v>
       </c>
       <c r="D10" s="6">
-        <v>6122.1026213016585</v>
+        <v>3241.7226546326301</v>
       </c>
       <c r="E10" s="6">
         <v>4353.4023677245659</v>
       </c>
       <c r="F10" s="6">
-        <v>2535.6862114567225</v>
+        <v>1202.1632218470429</v>
       </c>
       <c r="G10" s="6">
-        <v>16578.359350224375</v>
+        <v>11710.53523538133</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -25954,22 +25774,22 @@
         <v>19</v>
       </c>
       <c r="B11" s="6">
-        <v>7169.3464114312374</v>
+        <v>6120.3742788219397</v>
       </c>
       <c r="C11" s="6">
-        <v>7120.3125398450502</v>
+        <v>2183.8040670624196</v>
       </c>
       <c r="D11" s="6">
-        <v>7136.3146901100909</v>
+        <v>4732.3047210090126</v>
       </c>
       <c r="E11" s="6">
-        <v>5415.8958485100002</v>
+        <v>3417.2173583689828</v>
       </c>
       <c r="F11" s="6">
-        <v>1114.1339041120552</v>
+        <v>832.14588187321897</v>
       </c>
       <c r="G11" s="6">
-        <v>27956.003394008436</v>
+        <v>17285.846307135573</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -25977,22 +25797,22 @@
         <v>14</v>
       </c>
       <c r="B12" s="6">
-        <v>3333.2510693704598</v>
+        <v>2889.7691482183927</v>
       </c>
       <c r="C12" s="6">
-        <v>5640.2627897744569</v>
+        <v>3333.3653015853442</v>
       </c>
       <c r="D12" s="6">
-        <v>4405.2359355133603</v>
+        <v>2992.3279608377147</v>
       </c>
       <c r="E12" s="6">
-        <v>4746.1306397976659</v>
+        <v>3080.5442572597826</v>
       </c>
       <c r="F12" s="6">
-        <v>4522.3916741297162</v>
+        <v>2209.5986126544217</v>
       </c>
       <c r="G12" s="6">
-        <v>22647.272108585661</v>
+        <v>14505.605280555656</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -26000,22 +25820,22 @@
         <v>311</v>
       </c>
       <c r="B13" s="6">
-        <v>41819.191871626252</v>
+        <v>29818.977965092745</v>
       </c>
       <c r="C13" s="6">
-        <v>41084.96300224404</v>
+        <v>23817.747331157658</v>
       </c>
       <c r="D13" s="6">
-        <v>49723.237825488992</v>
+        <v>33360.181293712274</v>
       </c>
       <c r="E13" s="6">
-        <v>39059.854860165433</v>
+        <v>26265.816788837099</v>
       </c>
       <c r="F13" s="6">
-        <v>41818.247207584747</v>
+        <v>23534.532250597411</v>
       </c>
       <c r="G13" s="6">
-        <v>213505.49476710949</v>
+        <v>136797.2556293972</v>
       </c>
     </row>
   </sheetData>
@@ -26051,91 +25871,91 @@
         <v>322</v>
       </c>
       <c r="D3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>41819.191871626259</v>
-      </c>
-      <c r="C4">
-        <v>32437.82369989208</v>
-      </c>
-      <c r="D4">
-        <v>9381.3681717341788</v>
+      <c r="B4" s="7">
+        <v>29818.977965092741</v>
+      </c>
+      <c r="C4" s="7">
+        <v>23636.166235483375</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6182.811729609366</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>41084.963002244047</v>
-      </c>
-      <c r="C5">
-        <v>32250.166876516734</v>
-      </c>
-      <c r="D5">
-        <v>8834.7961257273128</v>
+      <c r="B5" s="7">
+        <v>23817.747331157661</v>
+      </c>
+      <c r="C5" s="7">
+        <v>18492.247879651281</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5325.4994515063809</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>49723.237825488985</v>
-      </c>
-      <c r="C6">
-        <v>41143.7775912293</v>
-      </c>
-      <c r="D6">
-        <v>8579.4602342596845</v>
+      <c r="B6" s="7">
+        <v>33360.181293712267</v>
+      </c>
+      <c r="C6" s="7">
+        <v>27801.968892102115</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5558.2124016101516</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>39059.85486016544</v>
-      </c>
-      <c r="C7">
-        <v>30565.641934586791</v>
-      </c>
-      <c r="D7">
-        <v>8494.2129255786494</v>
+      <c r="B7" s="7">
+        <v>26265.816788837103</v>
+      </c>
+      <c r="C7" s="7">
+        <v>20700.394573680638</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5565.4222151564645</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>41818.247207584747</v>
-      </c>
-      <c r="C8">
-        <v>31571.346796805617</v>
-      </c>
-      <c r="D8">
-        <v>10246.90041077913</v>
+      <c r="B8" s="7">
+        <v>23534.532250597411</v>
+      </c>
+      <c r="C8" s="7">
+        <v>17619.124755451616</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5915.4074951457951</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B9">
-        <v>213505.49476710951</v>
-      </c>
-      <c r="C9">
-        <v>167968.75689903053</v>
-      </c>
-      <c r="D9">
-        <v>45536.737868078897</v>
+      <c r="B9" s="7">
+        <v>136797.25562939717</v>
+      </c>
+      <c r="C9" s="7">
+        <v>108249.90233636902</v>
+      </c>
+      <c r="D9" s="7">
+        <v>28547.353293028122</v>
       </c>
     </row>
   </sheetData>
@@ -34734,15 +34554,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BEB230-BB7D-4499-A5AF-F3F1408FE215}">
   <dimension ref="AD23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="69" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="AD23" sqref="AD23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="69" zoomScaleNormal="54" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="23" spans="30:30" x14ac:dyDescent="0.25">
       <c r="AD23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
